--- a/别人怎么做的.xlsx
+++ b/别人怎么做的.xlsx
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
